--- a/alt_potencia (1).xlsx
+++ b/alt_potencia (1).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="38">
   <si>
     <t xml:space="preserve">Norte</t>
   </si>
@@ -145,8 +145,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="\ * #,##0.00\ ;\-* #,##0.00\ ;\ * \-#\ ;\ @\ "/>
-    <numFmt numFmtId="166" formatCode="\ * #,##0.000\ ;\ * \-#,##0.000\ ;\ * \-#\ ;\ @\ "/>
+    <numFmt numFmtId="165" formatCode="* #,##0.00\ ;\-* #,##0.00\ ;* \-#\ ;@\ "/>
+    <numFmt numFmtId="166" formatCode="* #,##0.000\ ;* \-#,##0.000\ ;* \-#\ ;@\ "/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0\ ;\-#,##0.0\ "/>
   </numFmts>
@@ -156,6 +156,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -397,7 +398,7 @@
       <selection pane="topLeft" activeCell="U6" activeCellId="0" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="1" t="s">
@@ -1321,13 +1322,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:W46"/>
+  <dimension ref="A2:W47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -2236,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>618.8</v>
+        <v>619.1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>775.0764</v>
+        <v>802.5764</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>7</v>
@@ -2292,10 +2293,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1738.3</v>
+        <v>1738.5</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1936.3</v>
+        <v>1955.5</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>32</v>
@@ -2332,6 +2333,15 @@
       </c>
       <c r="S30" s="0" t="n">
         <v>1.863667</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1444.3</v>
+        <v>1444.8</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1580.381683</v>
+        <v>1623.281683</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
@@ -2386,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>639</v>
+        <v>639.1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>640.863667</v>
+        <v>651.463667</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>8</v>
@@ -2436,7 +2446,7 @@
         <v>65.8</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>65.8</v>
+        <v>66.8</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>16</v>
@@ -2478,11 +2488,11 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
         <f aca="false">SUM(B29:B33)</f>
-        <v>4506.2</v>
+        <v>4507.3</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">SUM(C29:C33)</f>
-        <v>4998.42175</v>
+        <v>5099.62175</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>17</v>
@@ -2559,6 +2569,44 @@
         <v>27.9</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="1" t="s">
         <v>0</v>
@@ -2703,6 +2751,9 @@
       <c r="S42" s="0" t="n">
         <v>508.5</v>
       </c>
+      <c r="U42" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
@@ -2819,50 +2870,88 @@
         <v>369</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R45" s="0" t="n">
-        <f aca="false">SUM(R41:R44)</f>
-        <v>639</v>
+        <v>0.1</v>
       </c>
       <c r="S45" s="0" t="n">
-        <f aca="false">SUM(S41:S44)</f>
-        <v>640.863667</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="Q46" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <f aca="false">SUM(F41:F45)</f>
-        <v>618.8</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <f aca="false">SUM(G41:G45)</f>
-        <v>775.0764</v>
-      </c>
-      <c r="I46" s="0" t="s">
+      <c r="R46" s="0" t="n">
+        <f aca="false">SUM(R41:R45)</f>
+        <v>639.1</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <f aca="false">SUM(S41:S45)</f>
+        <v>651.463667</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <f aca="false">SUM(J41:J45)</f>
-        <v>1738.3</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <f aca="false">SUM(K41:K45)</f>
-        <v>1936.3</v>
-      </c>
-      <c r="M46" s="0" t="s">
+      <c r="F47" s="0" t="n">
+        <f aca="false">SUM(F41:F46)</f>
+        <v>619.1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">SUM(G41:G46)</f>
+        <v>802.5764</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="0" t="n">
-        <f aca="false">SUM(N41:N45)</f>
-        <v>1444.3</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <f aca="false">SUM(O41:O45)</f>
-        <v>1580.381683</v>
+      <c r="J47" s="0" t="n">
+        <f aca="false">SUM(J41:J46)</f>
+        <v>1738.5</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">SUM(K41:K46)</f>
+        <v>1955.5</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">SUM(N41:N46)</f>
+        <v>1444.8</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">SUM(O41:O46)</f>
+        <v>1623.281683</v>
       </c>
     </row>
   </sheetData>
@@ -2905,11 +2994,11 @@
   </sheetPr>
   <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T46" activeCellId="0" sqref="T46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4128,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="C41" s="7" t="n">
-        <v>2123.92486151056</v>
+        <v>2124.45992231056</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>3135.51905063404</v>
+        <v>3184.56629063404</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>2025</v>
@@ -4169,10 +4258,10 @@
         <v>9</v>
       </c>
       <c r="C42" s="7" t="n">
-        <v>2730.92286296135</v>
+        <v>2731.30059416135</v>
       </c>
       <c r="D42" s="7" t="n">
-        <v>6894.48519699384</v>
+        <v>6930.74739219384</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>22</v>
@@ -4223,18 +4312,22 @@
       <c r="V42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
+      <c r="W42" s="5" t="n">
+        <v>82.073162780983</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>145.941968314331</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>4541.88158363747</v>
+        <v>4542.67874363748</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>8371.25502399952</v>
+        <v>8439.65135199952</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>24</v>
@@ -4276,21 +4369,27 @@
         <v>3083.15456156149</v>
       </c>
       <c r="U43" s="7"/>
-      <c r="V43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="V43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="W43" s="7" t="n">
+        <f aca="false">(8760*$W24*'Tendencial-potencia'!V30)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="7" t="n">
+        <f aca="false">(8760*$W24*'Tendencial-potencia'!W30)/1000</f>
+        <v>1.39284</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>1903.66550211808</v>
+        <v>1903.86312771807</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>3502.75063747729</v>
+        <v>3523.6989510773</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
@@ -4336,9 +4435,17 @@
         <v>138.754775087331</v>
       </c>
       <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
+      <c r="V44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W44" s="7" t="n">
+        <f aca="false">SUM(W42:W43)</f>
+        <v>82.073162780983</v>
+      </c>
+      <c r="X44" s="7" t="n">
+        <f aca="false">SUM(X42:X43)</f>
+        <v>147.334808314331</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
@@ -4348,7 +4455,7 @@
         <v>82.073162780983</v>
       </c>
       <c r="D45" s="7" t="n">
-        <v>145.941968314331</v>
+        <v>147.334808314331</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>27</v>
@@ -4400,11 +4507,11 @@
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">SUM(C41:C45)</f>
-        <v>11382.4679730084</v>
+        <v>11384.3755506084</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">SUM(D41:D45)</f>
-        <v>22049.951877419</v>
+        <v>22225.998794219</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>30</v>
@@ -4442,16 +4549,16 @@
         <v>1270.696327962</v>
       </c>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
-        <v>12</v>
+      <c r="R46" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="S46" s="7" t="n">
-        <f aca="false">SUM(S31:S36)</f>
-        <v>1903.66550211808</v>
+        <f aca="false">(8760*$S24*'Tendencial-potencia'!R45)/1000</f>
+        <v>0.1976256</v>
       </c>
       <c r="T46" s="7" t="n">
-        <f aca="false">SUM(T31:T36)</f>
-        <v>3502.75063747729</v>
+        <f aca="false">(8760*$S24*'Tendencial-potencia'!S45)/1000</f>
+        <v>20.9483136</v>
       </c>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
@@ -4459,54 +4566,97 @@
       <c r="X46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="7" t="s">
-        <v>12</v>
+      <c r="F47" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="7" t="n">
-        <f aca="false">SUM(G42:G46)</f>
-        <v>2123.92486151056</v>
+        <f aca="false">(8760*$G24*'Tendencial-potencia'!F46)/1000</f>
+        <v>0.5350608</v>
       </c>
       <c r="H47" s="7" t="n">
-        <f aca="false">SUM(H42:H46)</f>
-        <v>3135.51905063404</v>
+        <f aca="false">(8760*$G24*'Tendencial-potencia'!G46)/1000</f>
+        <v>49.04724</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K47" s="7" t="n">
-        <f aca="false">SUM(K42:K46)</f>
-        <v>2730.92286296135</v>
+        <f aca="false">(8760*$K24*'Tendencial-potencia'!J46)/1000</f>
+        <v>0.3777312</v>
       </c>
       <c r="L47" s="7" t="n">
-        <f aca="false">SUM(L42:L46)</f>
-        <v>6894.48519699384</v>
+        <f aca="false">(8760*$K24*'Tendencial-potencia'!K46)/1000</f>
+        <v>36.2621952</v>
       </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="O47" s="7" t="n">
-        <f aca="false">SUM(O42:O46)</f>
-        <v>4541.88158363747</v>
+        <f aca="false">(8760*$O24*'Tendencial-potencia'!N46)/1000</f>
+        <v>0.79716</v>
       </c>
       <c r="P47" s="7" t="n">
-        <f aca="false">SUM(P42:P46)</f>
-        <v>8371.25502399952</v>
+        <f aca="false">(8760*$O24*'Tendencial-potencia'!O46)/1000</f>
+        <v>68.396328</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="R47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" s="7" t="n">
+        <f aca="false">SUM(S42:S46)</f>
+        <v>1903.86312771807</v>
+      </c>
+      <c r="T47" s="7" t="n">
+        <f aca="false">SUM(T42:T46)</f>
+        <v>3523.6989510773</v>
+      </c>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="n">
+        <f aca="false">SUM(G42:G47)</f>
+        <v>2124.45992231056</v>
+      </c>
+      <c r="H48" s="7" t="n">
+        <f aca="false">SUM(H42:H47)</f>
+        <v>3184.56629063404</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <f aca="false">SUM(K42:K47)</f>
+        <v>2731.30059416135</v>
+      </c>
+      <c r="L48" s="7" t="n">
+        <f aca="false">SUM(L42:L47)</f>
+        <v>6930.74739219384</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48" s="7" t="n">
+        <f aca="false">SUM(O42:O47)</f>
+        <v>4542.67874363748</v>
+      </c>
+      <c r="P48" s="7" t="n">
+        <f aca="false">SUM(P42:P47)</f>
+        <v>8439.65135199952</v>
+      </c>
+    </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="n">
         <f aca="false">(D9*100)/C46</f>
-        <v>194.110962485654</v>
+        <v>194.078437054433</v>
       </c>
     </row>
   </sheetData>
@@ -4553,7 +4703,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="1" t="s">
